--- a/biology/Zoologie/Ara_rouge/Ara_rouge.xlsx
+++ b/biology/Zoologie/Ara_rouge/Ara_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ara macao
 L'Ara rouge (Ara macao) ou Ara Macao, est un grand perroquet coloré vivant dans les forêts tropicales américaines. Il s'agit de l'oiseau national du Honduras. À ne pas confondre avec l’Ara à ailes vertes qui est en tout point ressemblant, hormis les ailes qui, comme l'indique le nom, possèdent du vert à la place du jaune.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ara rouge mesure 84 à 86 centimètres de longueur, dont plus de la moitié correspond aux longues rectrices pointues typiques de tous les aras. Il pèse un kilogramme en moyenne. Si certains individus peuvent vivre plus de 100 ans[1],
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ara rouge mesure 84 à 86 centimètres de longueur, dont plus de la moitié correspond aux longues rectrices pointues typiques de tous les aras. Il pèse un kilogramme en moyenne. Si certains individus peuvent vivre plus de 100 ans,
 sa durée de vie moyenne est de 80 ans[réf. nécessaire].
 			Un ara rouge, près de Copán (Honduras).
 			Un Ara macao en liberté près du parc national de Manú au Pérou.
@@ -549,7 +563,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ara rouge habite dans les forêts humides tropicales américaines, de l'est du Mexique à l'Amazonie péruvienne et brésilienne, dans les terres basses jusqu'à 500 m d'altitude. Alors qu'elles sont peu fréquentes sur le continent, de grandes colonies d'aras rouges peuvent être observées sur l'Île Coiba sur la côte pacifique du Panama.
 Les populations d'aras rouges ont fortement diminué en raison de la destruction de leur habitat, des captures pour le commerce et de l'épandage de pesticides pour les cultures. Au Costa Rica par exemple, l'ara rouge n'occupe plus que 9 100 km2 contre 42 500 km2 auparavant.
@@ -582,7 +598,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ara rouge mange principalement des fruits et des graines. Il aime notamment les pommes, les noix, les bananes et d'autres fruits, ainsi que le nectar et les bourgeons. Son bec lui permet de casser très facilement les coquilles des noix et autres fruits de ce genre.
 </t>
@@ -613,7 +631,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le couple n'effectue qu'un cycle de reproduction par an. La femelle pond deux ou trois œufs dans une cavité d'arbre. Elle les couve pendant 27 jours. Les jeunes s'envolent à l'âge de trois mois mais ne deviennent indépendants qu'entre quatre et cinq mois.
 </t>
@@ -644,7 +664,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aras rouges sont des oiseaux extrêmement sociaux qu'on ne trouve presque qu'en groupe, souvent d'une vingtaine d'individus. Les aras ne s'éloignent de leur groupe, en couple, que pendant la période de reproduction. Ils recherchent ensemble leur nourriture, puis retournent le soir dans un endroit commun pour dormir. À des moments précis en effet, les aras s'envolent ensemble pour chercher un endroit où dormir, ce deux fois par jour (à midi et la nuit). Les membres d'une même famille volent très près les uns des autres et recherchent un contact corporel lorsqu'ils dorment.
 Les chercheurs n'ont pas pu distinguer de hiérarchie chez les aras jusqu'à maintenant, car leurs groupes ne semblent pas être menés par un chef. Toutefois, les aras les plus jeunes laissent toujours la priorité aux plus âgés lorsqu'il s'agit de se nourrir: ce n'est que quand les plus vieux ont terminé de manger que les plus jeunes commencent. La raison de cette pratique est toutefois plus pragmatique que due à la politesse. Les oiseaux plus âgés sont en effet plus expérimentés et savent mieux que les autres où l'on trouve de la nourriture. Les oiseaux les plus jeunes apprennent en observant et en imitant les plus âgés afin de devenir plus tard eux aussi des modèles.
@@ -678,7 +700,9 @@
           <t>Relations avec d'autres espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plus grands prédateurs des aras sont les rapaces diurnes. Les mammifères carnivores ne sont que rarement dangereux pour les aras rouges puisqu'ils chassent au sol.
 Par ailleurs, les aras rouges évitent les aras hyacinthes, plus gros, qui sont de sérieux concurrents dans leur quête de nourriture.
